--- a/RFQ_Excel/5995/mat_al.xlsx
+++ b/RFQ_Excel/5995/mat_al.xlsx
@@ -670,14 +670,17 @@
           <t>1.250 2024-T351 AL PLT PER QQ-A-250/4</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
       <c r="D3" t="n">
         <v>1.25</v>
       </c>
       <c r="E3" t="n">
-        <v>1.15</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>21.76</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
